--- a/biology/Botanique/Bronzée_d'Enghien/Bronzée_d'Enghien.xlsx
+++ b/biology/Botanique/Bronzée_d'Enghien/Bronzée_d'Enghien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bronz%C3%A9e_d%27Enghien</t>
+          <t>Bronzée_d'Enghien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bronzée d'Enghien est une variété de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bronz%C3%A9e_d%27Enghien</t>
+          <t>Bronzée_d'Enghien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bronz%C3%A9e_d%27Enghien</t>
+          <t>Bronzée_d'Enghien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,10 +551,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poire viendrait d'un semis de M. De Jonghe de Bruxelles[1].
-Une autre source la dit : « ancienne variété belge obtenue vers 1830, diffusée par la Société Van Mons, mais serait une obtention de M. Paternoster, négociant d’Enghien »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poire viendrait d'un semis de M. De Jonghe de Bruxelles.
+Une autre source la dit : « ancienne variété belge obtenue vers 1830, diffusée par la Société Van Mons, mais serait une obtention de M. Paternoster, négociant d’Enghien ».
 </t>
         </is>
       </c>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bronz%C3%A9e_d%27Enghien</t>
+          <t>Bronzée_d'Enghien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,9 +585,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre se présente de vigueur moyenne sur cognassier. Il se conduit en pyramide et en espalier[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre se présente de vigueur moyenne sur cognassier. Il se conduit en pyramide et en espalier.
 </t>
         </is>
       </c>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bronz%C3%A9e_d%27Enghien</t>
+          <t>Bronzée_d'Enghien</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,9 +618,11 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit est moyen, en forme de goutte, à la peau ferme et épaisse et à la chair jaune, partiellement couverte d'une couche de couleur roussâtre[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est moyen, en forme de goutte, à la peau ferme et épaisse et à la chair jaune, partiellement couverte d'une couche de couleur roussâtre.
 </t>
         </is>
       </c>
@@ -613,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bronz%C3%A9e_d%27Enghien</t>
+          <t>Bronzée_d'Enghien</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,9 +651,11 @@
           <t>Appréciation générale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un fruit plutôt destiné aux usages de ménage. Son intérêt est surtout dû à sa bonne résistance aux maladies[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un fruit plutôt destiné aux usages de ménage. Son intérêt est surtout dû à sa bonne résistance aux maladies.
 </t>
         </is>
       </c>
